--- a/resultSummary.xlsx
+++ b/resultSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godwin.okwuibe\Documents\GitHub\Survey_of_LEM_based_DLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB09D1-B349-4C56-81EE-E7563A143820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D0CF17-F1BA-4D41-BD37-3DA6A90BF1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="69">
   <si>
     <t>S/N</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Hybrid DLT based LEM</t>
-  </si>
-  <si>
-    <t>WPR+MiF+HDLT</t>
   </si>
   <si>
     <t>SMS</t>
@@ -224,6 +221,60 @@
   <si>
     <t>WPR+SPP+LEMDLT</t>
   </si>
+  <si>
+    <t>Community Size</t>
+  </si>
+  <si>
+    <t>0.3 - 0.6</t>
+  </si>
+  <si>
+    <t>WPR+FASPP+LEMHDLT</t>
+  </si>
+  <si>
+    <t>Share of market savings</t>
+  </si>
+  <si>
+    <t>Share of individual savings - household consumers</t>
+  </si>
+  <si>
+    <t>Share of individual savings - household prosumers</t>
+  </si>
+  <si>
+    <t>Share of individual savings - industrial consumers</t>
+  </si>
+  <si>
+    <t>Share of individual savings - industrial prosumers</t>
+  </si>
+  <si>
+    <t>WPR</t>
+  </si>
+  <si>
+    <t>Willingsness to pay more for renewable enrgy</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>Start of pilot project</t>
+  </si>
+  <si>
+    <t>DLT</t>
+  </si>
+  <si>
+    <t>LEM</t>
+  </si>
+  <si>
+    <t>Distributed ledger technologies</t>
+  </si>
+  <si>
+    <t>Local energy markets</t>
+  </si>
+  <si>
+    <t>FASPP</t>
+  </si>
+  <si>
+    <t>Five years after start of pilot pilot project</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +339,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -301,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +368,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -655,19 +714,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -682,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -693,24 +752,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">IFERROR(INDEX(INDIRECT("'"&amp; B2 &amp;"'!" &amp;INDIRECT("Settings!B9")),E2*10,D2*5) *100,"Not Available")</f>
-        <v>46.637800560073401</v>
+        <v>46.401441907214604</v>
       </c>
       <c r="G2">
         <f ca="1">IFERROR(F2*1.206388,"Not Available")</f>
-        <v>56.263282942065828</v>
+        <v>55.978142699560813</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">IFERROR(F2*Settings!C9, "Not Available")</f>
@@ -718,15 +777,15 @@
       </c>
       <c r="I2">
         <f ca="1">F2</f>
-        <v>46.637800560073401</v>
+        <v>46.401441907214604</v>
       </c>
       <c r="J2">
         <f ca="1">F2*0.58</f>
-        <v>27.049924324842571</v>
+        <v>26.91283630618447</v>
       </c>
       <c r="K2">
         <f ca="1">F2*0.83</f>
-        <v>38.709374464860922</v>
+        <v>38.513196782988118</v>
       </c>
       <c r="L2" t="str">
         <f ca="1">IFERROR(0.78*H2, "Not Available")</f>
@@ -734,7 +793,7 @@
       </c>
       <c r="M2">
         <f ca="1">G2*0.82</f>
-        <v>46.135892012493976</v>
+        <v>45.902077013639861</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -742,32 +801,48 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
         <v>0.4</v>
       </c>
       <c r="F3" s="1" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IFERROR(INDEX(INDIRECT("'"&amp; B3 &amp;"'!" &amp;INDIRECT("Settings!D9")),E3*10,D3*5) *100,"Not Available")</f>
-        <v>71.02771896316959</v>
+        <v>61.172269221795396</v>
       </c>
       <c r="G3">
         <f ca="1">IFERROR(F3*1.185,"Not Available")</f>
-        <v>84.167846971355971</v>
-      </c>
-      <c r="H3" t="str">
+        <v>72.489139027827548</v>
+      </c>
+      <c r="H3">
         <f ca="1">IFERROR(F3*Settings!K9, "Not Available")</f>
-        <v>Not Available</v>
+        <v>61.172269221795396</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I8" ca="1" si="0">F3</f>
-        <v>71.02771896316959</v>
+        <v>61.172269221795396</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" ca="1" si="1">F3*0.58</f>
+        <v>35.47991614864133</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" ca="1" si="2">F3*0.83</f>
+        <v>50.772983454090173</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" ca="1" si="3">IFERROR(0.78*H3, "Not Available")</f>
+        <v>47.71436999300041</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" ca="1" si="4">G3*0.82</f>
+        <v>59.441094002818588</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -775,32 +850,48 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="1" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IFERROR(INDEX(INDIRECT("'"&amp; B4 &amp;"'!" &amp;INDIRECT("Settings!E9")),E4*10,D4*5) *100,"Not Available")</f>
-        <v>12.179079241147999</v>
+        <v>40.662741824029602</v>
       </c>
       <c r="G4">
         <f ca="1">F4</f>
-        <v>12.179079241147999</v>
-      </c>
-      <c r="H4" t="str">
+        <v>40.662741824029602</v>
+      </c>
+      <c r="H4">
         <f ca="1">IFERROR(F4*Settings!L9, "Not Available")</f>
-        <v>Not Available</v>
+        <v>40.662741824029602</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.179079241147999</v>
+        <v>40.662741824029602</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.584390257937169</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.750075713944568</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.71693862274309</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.34344829570427</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -808,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1.4</v>
@@ -835,16 +926,32 @@
         <f t="shared" ca="1" si="0"/>
         <v>14.6714926025487</v>
       </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5094657094782455</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.17733886011542</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Not Available</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.1356312848625247</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -854,19 +961,35 @@
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IFERROR(INDEX(INDIRECT("'"&amp; B6 &amp;"'!" &amp;INDIRECT("Settings!G9")),E6*10,D6*5) *100,"Not Available")</f>
-        <v>484.32642109254198</v>
+        <v>145.867970497611</v>
       </c>
       <c r="G6">
         <f ca="1">1.14*F6+12*0.567</f>
-        <v>558.93612004549777</v>
-      </c>
-      <c r="H6" t="str">
+        <v>173.09348636727651</v>
+      </c>
+      <c r="H6">
         <f ca="1">IFERROR(F6*Settings!N9, "Not Available")</f>
-        <v>Not Available</v>
+        <v>145.867970497611</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>484.32642109254198</v>
+        <v>145.867970497611</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>84.603422888614375</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="2"/>
+        <v>121.07041551301712</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.77701698813658</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="4"/>
+        <v>141.93665882116673</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -874,10 +997,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -901,16 +1024,32 @@
         <f t="shared" ca="1" si="0"/>
         <v>10.263181689371701</v>
       </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9526453798355856</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5184408021785103</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Not Available</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0147422432246653</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>0.8</v>
@@ -934,6 +1073,22 @@
         <f t="shared" ca="1" si="0"/>
         <v>21.384869906968802</v>
       </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.403224546041905</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.749442022784105</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Not Available</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.569856389034435</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="C9" s="3"/>
@@ -941,33 +1096,210 @@
     <row r="11" spans="1:13">
       <c r="F11" s="3"/>
     </row>
-    <row r="18" spans="3:8">
-      <c r="C18" t="s">
+    <row r="17" spans="3:9">
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1032,96 +1364,96 @@
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
-        <v>37</v>
-      </c>
       <c r="AD1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
       </c>
       <c r="T2">
         <v>1.2</v>
@@ -1141,52 +1473,52 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3">
         <v>1.4</v>
@@ -1195,7 +1527,7 @@
         <v>1.4</v>
       </c>
       <c r="AC3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD3">
         <v>1.4</v>
@@ -1206,52 +1538,52 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T4">
         <v>1.6</v>
@@ -1260,7 +1592,7 @@
         <v>1.6</v>
       </c>
       <c r="AC4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD4" cm="1">
         <f t="array" aca="1" ref="AD4" ca="1">INDIRECT("T" &amp; (MATCH(Display!I1,AC$2:AC$3,0)+1))</f>
@@ -1269,52 +1601,52 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T5">
         <v>1.8</v>
@@ -1325,34 +1657,34 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1381,34 +1713,34 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1437,34 +1769,34 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1487,7 +1819,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDIRECT("B" &amp; (MATCH(Display!C2,A$3:A$8,0)+2))</f>
@@ -1499,11 +1831,11 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("D" &amp; (MATCH(Display!C3,A$3:A$8,0)+2))</f>
-        <v>U3:AA11</v>
+        <v>CB4:CH12</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT("E" &amp; (MATCH(Display!C4,A$3:A$8,0)+2))</f>
-        <v>U3:AA11</v>
+        <v>CB4:CH12</v>
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT("F" &amp; (MATCH(Display!C5,A$3:A$8,0)+2))</f>
@@ -1511,7 +1843,7 @@
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("G" &amp; (MATCH(Display!C6,A$3:A$8,0)+2))</f>
-        <v>U3:AA11</v>
+        <v>BM3:BS11</v>
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("H" &amp; (MATCH(Display!C7,A$3:A$8,0)+2))</f>
@@ -1522,23 +1854,23 @@
         <v>U3:AA11</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="str" cm="1">
+        <v>25</v>
+      </c>
+      <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("K" &amp; (MATCH(Display!C3,J$3:J$8,0)+2))</f>
-        <v>Not available</v>
-      </c>
-      <c r="L9" t="str" cm="1">
+        <v>1</v>
+      </c>
+      <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("K" &amp; (MATCH(Display!C4,J$3:J$8,0)+2))</f>
-        <v>Not available</v>
+        <v>1</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("K" &amp; (MATCH(Display!C5,J$3:J$8,0)+2))</f>
         <v>Not available</v>
       </c>
-      <c r="N9" t="str" cm="1">
+      <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("K" &amp; (MATCH(Display!C6,J$3:J$8,0)+2))</f>
-        <v>Not available</v>
+        <v>1</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("K" &amp; (MATCH(Display!C7,J$3:J$8,0)+2))</f>
@@ -1551,21 +1883,21 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1701,16 +2033,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -1734,13 +2066,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -1764,13 +2096,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -1794,13 +2126,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -1824,13 +2156,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -1856,58 +2188,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -1935,32 +2267,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -2023,13 +2355,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -2044,7 +2376,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0.20152635267823499</v>
@@ -2156,7 +2488,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.202084724447636</v>
@@ -2328,7 +2660,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.20219973530008001</v>
@@ -2510,7 +2842,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.20221911182005001</v>
@@ -2692,7 +3024,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.202564831677641</v>
@@ -2876,7 +3208,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.202564831677641</v>
@@ -2996,7 +3328,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.202564831677641</v>
@@ -3108,7 +3440,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.202564831677641</v>
@@ -3220,7 +3552,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.202564831677641</v>
@@ -3284,16 +3616,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -3317,13 +3649,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -3347,13 +3679,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -3377,13 +3709,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -3407,13 +3739,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -3439,58 +3771,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -3518,32 +3850,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -3606,13 +3938,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -3627,7 +3959,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0.99302823707039101</v>
@@ -3739,7 +4071,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.99279634188044297</v>
@@ -3911,7 +4243,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.99276222825496596</v>
@@ -4093,7 +4425,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.99283154994568401</v>
@@ -4275,7 +4607,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.99273050787089401</v>
@@ -4459,7 +4791,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.99273050787089401</v>
@@ -4579,7 +4911,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.99273050787089401</v>
@@ -4691,7 +5023,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.99273050787089401</v>
@@ -4803,7 +5135,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.99273050787089401</v>
@@ -4867,16 +5199,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -4900,13 +5232,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -4930,13 +5262,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -4960,13 +5292,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -4990,13 +5322,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -5022,58 +5354,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -5101,32 +5433,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -5189,13 +5521,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -5210,7 +5542,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>8.9332784074697802E-2</v>
@@ -5322,7 +5654,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>8.9495110792371699E-2</v>
@@ -5494,7 +5826,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.10201537366942399</v>
@@ -5676,7 +6008,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.10743978838233301</v>
@@ -5858,7 +6190,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.121310015036959</v>
@@ -6042,7 +6374,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.121310015036959</v>
@@ -6162,7 +6494,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.121310015036959</v>
@@ -6274,7 +6606,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.121310015036959</v>
@@ -6386,7 +6718,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.121310015036959</v>
@@ -6450,16 +6782,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -6483,13 +6815,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -6513,13 +6845,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -6543,13 +6875,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -6573,13 +6905,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -6605,58 +6937,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -6684,32 +7016,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -6772,13 +7104,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -6793,7 +7125,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>8.0296412257572405E-2</v>
@@ -6905,7 +7237,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>8.4107263757202497E-2</v>
@@ -7077,7 +7409,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>9.70024539141216E-2</v>
@@ -7259,7 +7591,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.1026216030144</v>
@@ -7441,7 +7773,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.112131591501858</v>
@@ -7625,7 +7957,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.112131591501858</v>
@@ -7745,7 +8077,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.112131591501858</v>
@@ -7857,7 +8189,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.112131591501858</v>
@@ -7969,7 +8301,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.112131591501858</v>
@@ -8033,16 +8365,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -8066,16 +8398,16 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V1">
         <v>0.2</v>
@@ -8099,13 +8431,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -8129,13 +8461,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -8159,13 +8491,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -8191,58 +8523,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -8270,32 +8602,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -8358,13 +8690,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -8379,7 +8711,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>5.8033657071193101</v>
@@ -8491,7 +8823,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>5.8059614431125501</v>
@@ -8663,7 +8995,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>5.7906203517368002</v>
@@ -8845,7 +9177,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>5.7836789453728796</v>
@@ -9027,7 +9359,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>5.7992825269052402</v>
@@ -9211,7 +9543,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>5.7992825269052402</v>
@@ -9331,7 +9663,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>5.7992825269052402</v>
@@ -9443,7 +9775,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>5.7992825269052402</v>
@@ -9555,7 +9887,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>5.7992825269052402</v>
@@ -9619,16 +9951,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -9652,13 +9984,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -9682,13 +10014,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -9712,13 +10044,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -9742,13 +10074,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -9774,58 +10106,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -9853,32 +10185,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -9941,13 +10273,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -9962,7 +10294,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>7.8036166834793294E-2</v>
@@ -10074,7 +10406,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>7.6289906493997195E-2</v>
@@ -10246,7 +10578,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>8.3583081732763104E-2</v>
@@ -10428,7 +10760,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>8.7241792652168901E-2</v>
@@ -10610,7 +10942,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.10238834061825799</v>
@@ -10794,7 +11126,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.10238834061825799</v>
@@ -10914,7 +11246,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.10238834061825799</v>
@@ -11026,7 +11358,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.10238834061825799</v>
@@ -11138,7 +11470,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.10238834061825799</v>
@@ -11202,16 +11534,16 @@
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>0.2</v>
@@ -11235,13 +11567,13 @@
         <v>1.4</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1">
         <v>0.2</v>
@@ -11265,13 +11597,13 @@
         <v>1.4</v>
       </c>
       <c r="AF1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG1">
         <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ1">
         <v>0.2</v>
@@ -11295,13 +11627,13 @@
         <v>1.4</v>
       </c>
       <c r="AU1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV1">
         <v>50</v>
       </c>
       <c r="AX1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY1">
         <v>0.2</v>
@@ -11325,13 +11657,13 @@
         <v>1.4</v>
       </c>
       <c r="BI1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ1">
         <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM1">
         <v>0.2</v>
@@ -11357,58 +11689,58 @@
     </row>
     <row r="2" spans="1:86">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
-        <v>12</v>
-      </c>
       <c r="AW2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY2">
         <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>0.2</v>
@@ -11436,32 +11768,32 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -11524,13 +11856,13 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BX3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY3" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" t="s">
-        <v>12</v>
-      </c>
       <c r="BZ3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:86">
@@ -11545,7 +11877,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0.33929493789346599</v>
@@ -11657,7 +11989,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.33905859570810198</v>
@@ -11829,7 +12161,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.34009163977638901</v>
@@ -12011,7 +12343,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.34004399014224301</v>
@@ -12193,7 +12525,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.33987816941541499</v>
@@ -12377,7 +12709,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.33987816941541499</v>
@@ -12497,7 +12829,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.33987816941541499</v>
@@ -12609,7 +12941,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0.33987816941541499</v>
@@ -12721,7 +13053,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.33987816941541499</v>
